--- a/assets/forms.xlsx
+++ b/assets/forms.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuni\Desktop\FireEmblem1\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B35DA-757C-408C-98E5-2B4264A3690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -246,9 +235,6 @@
     <t>F5</t>
   </si>
   <si>
-    <t>text_</t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
@@ -291,192 +277,193 @@
     <t>F6</t>
   </si>
   <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>sea_</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>sea7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>river8</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>text5</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>armoury</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>river0</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>river9</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>text6</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>sand0</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>sea0</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>river1</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>river_</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>text7</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t_name</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>text4</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>sea_</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>fort</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>gate</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>sea7</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>river8</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>text5</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>armoury</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>river0</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>river9</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>text6</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>sand0</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>sea0</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>river1</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>river_</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>text7</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>t_name</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -485,6 +472,13 @@
       <color rgb="FF2E75B6"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,16 +502,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -842,37 +844,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="2" max="2" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="3" max="3" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="4" max="4" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="5" max="5" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="6" max="6" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="7" max="7" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="8" max="8" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="9" max="9" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="10" max="10" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="11" max="11" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="12" max="12" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="13" max="13" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="14" max="14" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="15" max="15" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="16" max="16" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="17" max="17" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="18" max="18" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
-    <col min="19" max="19" width="6.625" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -969,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1095,246 +1100,248 @@
         <v>70</v>
       </c>
       <c r="L5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="B7" t="s">
         <v>90</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="B9" t="s">
         <v>120</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>136</v>
       </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="S10" s="1" t="s">
-        <v>137</v>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S11" s="1" t="s">
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="S12" s="1" t="s">
+    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="S13" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="S14" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S14"/>
+    <ignoredError sqref="A1:S4 A10:S14 A5:K5 M5:S5 A6:K9 M6:S9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>